--- a/data-raw/table-data/table-data-not-counties.xlsx
+++ b/data-raw/table-data/table-data-not-counties.xlsx
@@ -467,12 +467,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>4yr Degree or Greater</t>
+          <t>Letter Sounds</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>33%</t>
+          <t>8</t>
         </is>
       </c>
     </row>
@@ -484,12 +484,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Graduation Rate</t>
+          <t>3rd Grade ELA</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>80%</t>
+          <t>47%</t>
         </is>
       </c>
     </row>
@@ -518,12 +518,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>3rd Grade ELA</t>
+          <t>Graduation Rate</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>47%</t>
+          <t>80%</t>
         </is>
       </c>
     </row>
@@ -535,12 +535,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Letter Sounds</t>
+          <t>4yr Degree or Greater</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>33%</t>
         </is>
       </c>
     </row>
@@ -620,12 +620,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Tobacco Use</t>
+          <t>Low Weight Births</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>26%</t>
+          <t>7%</t>
         </is>
       </c>
     </row>
@@ -637,12 +637,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Good Mental Health</t>
+          <t>Vaccination Rate 2yr olds</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>57%</t>
+          <t>73%</t>
         </is>
       </c>
     </row>
@@ -671,12 +671,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Vaccination Rate 2yr olds</t>
+          <t>Good Mental Health</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>73%</t>
+          <t>57%</t>
         </is>
       </c>
     </row>
@@ -688,12 +688,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Low Weight Births</t>
+          <t>Tobacco Use</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>7%</t>
+          <t>26%</t>
         </is>
       </c>
     </row>
@@ -841,12 +841,12 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>4yr Degree or Greater</t>
+          <t>3rd Grade ELA</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>23%</t>
+          <t>42%</t>
         </is>
       </c>
     </row>
@@ -858,12 +858,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Graduation Rate</t>
+          <t>9th Grade on Track</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>75%</t>
+          <t>82%</t>
         </is>
       </c>
     </row>
@@ -875,12 +875,12 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>9th Grade on Track</t>
+          <t>Graduation Rate</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>82%</t>
+          <t>75%</t>
         </is>
       </c>
     </row>
@@ -892,12 +892,12 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>3rd Grade ELA</t>
+          <t>4yr Degree or Greater</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>42%</t>
+          <t>23%</t>
         </is>
       </c>
     </row>
@@ -1079,12 +1079,12 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>4yr Degree or Greater</t>
+          <t>3rd Grade ELA</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>37%</t>
+          <t>48%</t>
         </is>
       </c>
     </row>
@@ -1096,12 +1096,12 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Graduation Rate</t>
+          <t>9th Grade on Track</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>82%</t>
+          <t>86%</t>
         </is>
       </c>
     </row>
@@ -1113,12 +1113,12 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>9th Grade on Track</t>
+          <t>Graduation Rate</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>86%</t>
+          <t>82%</t>
         </is>
       </c>
     </row>
@@ -1130,12 +1130,12 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>3rd Grade ELA</t>
+          <t>4yr Degree or Greater</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>48%</t>
+          <t>37%</t>
         </is>
       </c>
     </row>
